--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\kuliah\semester5\whatsapp-voucher-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5D502-2215-4814-AA2C-AA87E6243156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA22799-E0AF-4260-A0BD-B846C50E4BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{819EAAA0-9516-4716-8974-C5211AEC5B8A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{819EAAA0-9516-4716-8974-C5211AEC5B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="2" r:id="rId1"/>
@@ -2521,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44047D6D-0C97-4B44-8409-8616C8F2D832}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScale="149" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="149" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4482,10 +4482,12 @@
       <c r="J114" s="25"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A115" s="26"/>
+      <c r="A115" s="26">
+        <v>82314030667</v>
+      </c>
       <c r="B115" s="31" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(LEFT(A115,1)="0",SUBSTITUTE(A115,"08","628"),IF(LEFT(A115,4)="620",SUBSTITUTE(A115,"620","62"),A115))," ",""),"-","")</f>
-        <v/>
+        <v>82314030667</v>
       </c>
       <c r="C115" s="31" t="s">
         <v>524</v>
@@ -4583,7 +4585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E57677-C0A3-428A-B069-4EE3CBBE2731}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+    <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\kuliah\semester5\whatsapp-voucher-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA22799-E0AF-4260-A0BD-B846C50E4BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2939B0D-191B-430F-B7D6-736E4ADF82C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{819EAAA0-9516-4716-8974-C5211AEC5B8A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="527">
   <si>
     <t>Achmad Rifqo Maulana</t>
   </si>
@@ -1615,6 +1615,9 @@
   </si>
   <si>
     <t>081325277732</t>
+  </si>
+  <si>
+    <t>082314030667</t>
   </si>
 </sst>
 </file>
@@ -4482,12 +4485,12 @@
       <c r="J114" s="25"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A115" s="26">
-        <v>82314030667</v>
+      <c r="A115" s="26" t="s">
+        <v>526</v>
       </c>
       <c r="B115" s="31" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(LEFT(A115,1)="0",SUBSTITUTE(A115,"08","628"),IF(LEFT(A115,4)="620",SUBSTITUTE(A115,"620","62"),A115))," ",""),"-","")</f>
-        <v>82314030667</v>
+        <v>6282314030667</v>
       </c>
       <c r="C115" s="31" t="s">
         <v>524</v>
